--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_07_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_07_end.xlsx
@@ -1528,7 +1528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  But, for Atro, “we” won’t abandon Wolumonde.
+    <t xml:space="preserve">[name="Folinic"]  But, for Atro, 'we' won’t abandon Wolumonde.
 </t>
   </si>
   <si>
@@ -1608,7 +1608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  We found him on the “Gramophone” at coordinate B2.
+    <t xml:space="preserve">[name="GreyThroat"]  We found him on the 'Gramophone' at coordinate B2.
 </t>
   </si>
   <si>
@@ -1692,7 +1692,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  It is true that a small percentage of the Messengers using the Contingency Contract have a utilitarian obsession, leading them to “save” as many people as possible.
+    <t xml:space="preserve">[name="Ayerscarpe"]  It is true that a small percentage of the Messengers using the Contingency Contract have a utilitarian obsession, leading them to 'save' as many people as possible.
 </t>
   </si>
   <si>
@@ -1744,7 +1744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Ah! It’s that rock monster again! Quick! Start the “Gramophone!”
+    <t xml:space="preserve">[name="Townsfolk"]  Ah! It’s that rock monster again! Quick! Start the 'Gramophone!'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_07_end.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_07_end.xlsx
@@ -1224,11 +1224,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  C’mon, over here!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  The markings here... they look like they’re simply venting.
+    <t xml:space="preserve">[name="Click"]  C'mon, over here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  The markings here... they look like they're simply venting.
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  Can you come here, GreyThroat? I... I don’t know how to say this...
+    <t xml:space="preserve">[name="Click"]  Can you come here, GreyThroat? I... I don't know how to say this...
 </t>
   </si>
   <si>
@@ -1256,7 +1256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Your pupils are red again. Control yourself. Don’t be afraid. Ayerscarpe, stay outside with her. Warn the mob.
+    <t xml:space="preserve">[name="GreyThroat"]  Your pupils are red again. Control yourself. Don't be afraid. Ayerscarpe, stay outside with her. Warn the mob.
 </t>
   </si>
   <si>
@@ -1268,7 +1268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  (It’s a mess. Someone’s last desperate stand... Ugh... are these... frozen limbs?)
+    <t xml:space="preserve">[name="GreyThroat"]  (It's a mess. Someone's last desperate stand... Ugh... are these... frozen limbs?)
 </t>
   </si>
   <si>
@@ -1276,11 +1276,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Gah! She’s a doctor?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  If you don’t leave, we’ll kill you too!
+    <t xml:space="preserve">[name="Armed Infected"]  Gah! She's a doctor?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  If you don't leave, we'll kill you too!
 </t>
   </si>
   <si>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Out with it! Or I’ll... I’ll... Ugh...
+    <t xml:space="preserve">[name="Armed Infected"]  Out with it! Or I'll... I'll... Ugh...
 </t>
   </si>
   <si>
@@ -1300,19 +1300,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Tell me where Biederman is and I’ll give you the antidote. Or you can enjoy spending the next few hours vomiting between hallucination episodes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  You’re sick... I... I don’t know... any Biederman. I just... have to kill all... the nobles... nng...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Then I’m afraid you’re all going to stay in jail.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Armed Infected"]  Huh? A mushroom? That’s a big mushroom... Why is it... moving? Why is it biting?!
+    <t xml:space="preserve">[name="Folinic"]  Tell me where Biederman is and I'll give you the antidote. Or you can enjoy spending the next few hours vomiting between hallucination episodes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  You're sick... I... I don't know... any Biederman. I just... have to kill all... the nobles... nng...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Then I'm afraid you're all going to stay in jail.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Armed Infected"]  Huh? A mushroom? That's a big mushroom... Why is it... moving? Why is it biting?!
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  They’re unstoppable!
+    <t xml:space="preserve">[name="Tatjana"]  They're unstoppable!
 </t>
   </si>
   <si>
@@ -1364,7 +1364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Hey! Uncle, that’s blood. You’re coughing up blood!
+    <t xml:space="preserve">[name="Tatjana"]  Hey! Uncle, that's blood. You're coughing up blood!
 </t>
   </si>
   <si>
@@ -1372,7 +1372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  My uncle, he can’t speak and—
+    <t xml:space="preserve">[name="Tatjana"]  My uncle, he can't speak and—
 </t>
   </si>
   <si>
@@ -1384,11 +1384,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Mr. Severin, he’s actually—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  You should listen to the doctor and quit smoking. We don’t need a test to see you have some serious persistent lung damage.
+    <t xml:space="preserve">[name="Suzuran"]  Mr. Severin, he's actually—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  You should listen to the doctor and quit smoking. We don't need a test to see you have some serious persistent lung damage.
 </t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Hey! Don’t move!
+    <t xml:space="preserve">[name="Folinic"]  Hey! Don't move!
 </t>
   </si>
   <si>
@@ -1404,7 +1404,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  You... you’re Infected?
+    <t xml:space="preserve">[name="Folinic"]  You... you're Infected?
 </t>
   </si>
   <si>
@@ -1412,11 +1412,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  These are Oripathy symptoms. The Originium is pushing out from his lungs into his throat. This dark powdery substance below your throat... that’s Originium crystals surfacing through your skin.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Your cells have begun fusing with the Originium. Is this why you don’t care about your health?!
+    <t xml:space="preserve">[name="Folinic"]  These are Oripathy symptoms. The Originium is pushing out from his lungs into his throat. This dark powdery substance below your throat... that's Originium crystals surfacing through your skin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Your cells have begun fusing with the Originium. Is this why you don't care about your health?!
 </t>
   </si>
   <si>
@@ -1424,11 +1424,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  This isn’t an early symptom or an acute lesion. He’s been Infected for some time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Probably from the Catastrophe... No, that’s too recent. It must have been even before that.
+    <t xml:space="preserve">[name="Folinic"]  This isn't an early symptom or an acute lesion. He's been Infected for some time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Probably from the Catastrophe... No, that's too recent. It must have been even before that.
 </t>
   </si>
   <si>
@@ -1440,7 +1440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Okay! Sorry, sir. I’ll be quick.
+    <t xml:space="preserve">[name="Suzuran"]  Okay! Sorry, sir. I'll be quick.
 </t>
   </si>
   <si>
@@ -1448,11 +1448,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Wolumonde... can’t be without... her Schultz!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  If you keep pushing yourself, she’s definitely going to lose him.
+    <t xml:space="preserve">[name="Severin"]  Wolumonde... can't be without... her Schultz!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  If you keep pushing yourself, she's definitely going to lose him.
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Say your piece, but I’m taking you in. Lisa, hold him. Tatjana, help me lift.
+    <t xml:space="preserve">[name="Folinic"]  Say your piece, but I'm taking you in. Lisa, hold him. Tatjana, help me lift.
 </t>
   </si>
   <si>
@@ -1484,11 +1484,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Please, everyone, *cough* *cough*, don’t tell anyone I’m Infected...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Then, I’ll admit that I was the murderer who set the fire. I was the cause of all Wolumonde’s problems...
+    <t xml:space="preserve">[name="Severin"]  Please, everyone, *cough* *cough*, don't tell anyone I'm Infected...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Then, I'll admit that I was the murderer who set the fire. I was the cause of all Wolumonde's problems...
 </t>
   </si>
   <si>
@@ -1496,19 +1496,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I don’t care. I can’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  But at least... they’ll have their scapegoat, and no excuse to keep fighting.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  But it’s not enough... Without an external force strong enough to clamp down on them, they’ll continue their cycle of revenge.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  So I request... Rhodes Island’s assistance... Even though we can’t afford to pay for it now.
+    <t xml:space="preserve">[name="Severin"]  I don't care. I can't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  But at least... they'll have their scapegoat, and no excuse to keep fighting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  But it's not enough... Without an external force strong enough to clamp down on them, they'll continue their cycle of revenge.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  So I request... Rhodes Island's assistance... Even though we can't afford to pay for it now.
 </t>
   </si>
   <si>
@@ -1516,19 +1516,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  We aren’t a charity.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  I’m begging you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  I don’t have the authority to make promises on behalf of Rhodes Island. Saving a town of ten thousand people is beyond the scope of our mission, and way beyond the authority Amiya invested in me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  But, for Atro, 'we' won’t abandon Wolumonde.
+    <t xml:space="preserve">[name="Folinic"]  We aren't a charity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  I'm begging you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  I don't have the authority to make promises on behalf of Rhodes Island. Saving a town of ten thousand people is beyond the scope of our mission, and way beyond the authority Amiya invested in me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  But, for Atro, 'we' won't abandon Wolumonde.
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Suzuran, take the Schultz to the upstairs parlor. And don’t let anyone see you.
+    <t xml:space="preserve">[name="Folinic"]  Suzuran, take the Schultz to the upstairs parlor. And don't let anyone see you.
 </t>
   </si>
   <si>
@@ -1556,7 +1556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Roger that! I’ll take care of it!
+    <t xml:space="preserve">[name="Suzuran"]  Roger that! I'll take care of it!
 </t>
   </si>
   <si>
@@ -1564,11 +1564,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  There are riots all over town. People are getting hurt or killed. I... I can’t just sit here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  I’ll go organize the militia that didn’t get caught up in the riot. At least... at least I can do something.
+    <t xml:space="preserve">[name="Tatjana"]  There are riots all over town. People are getting hurt or killed. I... I can't just sit here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  I'll go organize the militia that didn't get caught up in the riot. At least... at least I can do something.
 </t>
   </si>
   <si>
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  He’s dead.
+    <t xml:space="preserve">[name="GreyThroat"]  He's dead.
 </t>
   </si>
   <si>
@@ -1628,7 +1628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Wait...! You said, you said he’s already dead?
+    <t xml:space="preserve">[name="Folinic"]  Wait...! You said, you said he's already dead?
 </t>
   </si>
   <si>
@@ -1676,7 +1676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Letting people die in a Catastrophe is not really their modus operandi. They wouldn’t act in such a... brutal manner.
+    <t xml:space="preserve">[name="Ayerscarpe"]  Letting people die in a Catastrophe is not really their modus operandi. They wouldn't act in such a... brutal manner.
 </t>
   </si>
   <si>
@@ -1700,11 +1700,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  I’m so glad Leonhardt and Rhodes Island’s other Catastrophe Messengers don’t get so mixed up with them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  But... that can’t be right... What if..
+    <t xml:space="preserve">[name="Ayerscarpe"]  I'm so glad Leonhardt and Rhodes Island's other Catastrophe Messengers don't get so mixed up with them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  But... that can't be right... What if..
 </t>
   </si>
   <si>
@@ -1716,35 +1716,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  Look over there! By the music store! What’s that weird thing?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  It’s a... mountain?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  No. It’s a big moving boulder?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Click"]  Could it be that one guy’s Arts?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  That isn’t the kind of thing one man’s Arts can do. Let’s hurry back to the others!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  There’s no way an ordinary town militia is going to stand against a battle-hardened combat squad, and a Sarkaz one at that!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  What’s that? An earthquake?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Ah! It’s that rock monster again! Quick! Start the 'Gramophone!'
+    <t xml:space="preserve">[name="Click"]  Look over there! By the music store! What's that weird thing?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  It's a... mountain?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  No. It's a big moving boulder?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Click"]  Could it be that one guy's Arts?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  That isn't the kind of thing one man's Arts can do. Let's hurry back to the others!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  There's no way an ordinary town militia is going to stand against a battle-hardened combat squad, and a Sarkaz one at that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  What's that? An earthquake?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  Ah! It's that rock monster again! Quick! Start the 'Gramophone!'
 </t>
   </si>
   <si>
@@ -1788,7 +1788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Is it? I don’t really care. At this point, a happy ending is out of the question.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Is it? I don't really care. At this point, a happy ending is out of the question.
 </t>
   </si>
   <si>
@@ -1804,11 +1804,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  It’s tough, thankless work, being a mercenary. Always the toughest. Never appreciated.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Whatever. It’s your call.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  It's tough, thankless work, being a mercenary. Always the toughest. Never appreciated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Whatever. It's your call.
 </t>
   </si>
   <si>
